--- a/Prediction/LaLiga2025_26/Predicted_LaLiga2025_26_table_matchday_3.xlsx
+++ b/Prediction/LaLiga2025_26/Predicted_LaLiga2025_26_table_matchday_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,31 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TOP4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TOP5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TOP6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RELEGATION</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>ExpPoints</t>
         </is>
       </c>
@@ -459,8 +484,13 @@
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>84.5634273377695</v>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>85.23610550586561</v>
       </c>
     </row>
     <row r="3">
@@ -472,8 +502,13 @@
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>84.19172383898042</v>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>83.80602024427213</v>
       </c>
     </row>
     <row r="4">
@@ -485,8 +520,13 @@
           <t>Atlético de Madrid</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>71.85823128204854</v>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>72.03219488286736</v>
       </c>
     </row>
     <row r="5">
@@ -498,8 +538,13 @@
           <t>Villarreal</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>63.07202906716687</v>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>64.1705632712341</v>
       </c>
     </row>
     <row r="6">
@@ -511,8 +556,13 @@
           <t>Real Betis</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>60.2775858769884</v>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>60.18625366951277</v>
       </c>
     </row>
     <row r="7">
@@ -524,8 +574,13 @@
           <t>Athletic Club</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>54.50689489044301</v>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>54.83645943015656</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +589,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>49.34187967892194</v>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>49.10231464153016</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +607,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>49.25068270576516</v>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>48.7699148170532</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +625,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>48.63835170379274</v>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>48.30548923886948</v>
       </c>
     </row>
     <row r="11">
@@ -576,8 +646,13 @@
           <t>Osasuna</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>47.36992061682785</v>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>46.73412709043723</v>
       </c>
     </row>
     <row r="12">
@@ -589,8 +664,13 @@
           <t>Getafe</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>47.068180623441</v>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>46.50935761772428</v>
       </c>
     </row>
     <row r="13">
@@ -602,8 +682,13 @@
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>45.08063787818854</v>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>45.21993404140321</v>
       </c>
     </row>
     <row r="14">
@@ -615,8 +700,13 @@
           <t>Valencia</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>44.65966361417897</v>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>44.70056806678006</v>
       </c>
     </row>
     <row r="15">
@@ -625,11 +715,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alavés</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>44.21265556764723</v>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>44.04239909639792</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +733,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>43.65293310224852</v>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>43.53368194546711</v>
       </c>
     </row>
     <row r="17">
@@ -651,11 +751,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>43.35048282762231</v>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>43.47563047746731</v>
       </c>
     </row>
     <row r="18">
@@ -667,8 +772,13 @@
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>41.43897017271845</v>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>41.97133004358815</v>
       </c>
     </row>
     <row r="19">
@@ -680,8 +790,13 @@
           <t>Levante</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>36.81190251795015</v>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>36.6315226125305</v>
       </c>
     </row>
     <row r="20">
@@ -693,8 +808,13 @@
           <t>Real Oviedo</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>33.7038707026103</v>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>33.4738955137356</v>
       </c>
     </row>
     <row r="21">
@@ -706,8 +826,13 @@
           <t>Girona</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>32.78296029962652</v>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>33.42406902719281</v>
       </c>
     </row>
   </sheetData>
